--- a/Assets/StaticData/Excel/Stage.xlsx
+++ b/Assets/StaticData/Excel/Stage.xlsx
@@ -1,96 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Stage" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시작마을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초보자사냥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>genMonsters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1000, 1001, 1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>spawnArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0, 0, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>warpStageRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>resourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prefabs/Stage/BeginnerHuntingGround</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prefabs/Stage/StartingVillage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할로윈마을</t>
+  </si>
+  <si>
+    <t>1001,1002</t>
+  </si>
+  <si>
+    <t>Prefabs/Stage/HalloweenStage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -117,17 +117,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -422,14 +516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c52d6349-fa5c-4bb3-a9e1-f8410c44e160}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -439,7 +533,7 @@
     <col min="6" max="6" width="37.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -479,7 +573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -492,14 +586,14 @@
       <c r="D3">
         <v>-1</v>
       </c>
-      <c r="E3">
-        <v>1001</v>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -519,9 +613,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>